--- a/biology/Médecine/Hôpital_de_traumatologie_et_d'orthopédie_(Riga)/Hôpital_de_traumatologie_et_d'orthopédie_(Riga).xlsx
+++ b/biology/Médecine/Hôpital_de_traumatologie_et_d'orthopédie_(Riga)/Hôpital_de_traumatologie_et_d'orthopédie_(Riga).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_traumatologie_et_d%27orthop%C3%A9die_(Riga)</t>
+          <t>Hôpital_de_traumatologie_et_d'orthopédie_(Riga)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hôpital de traumatologie et d'orthopédie (en letton : Traumatoloģijas un ortopēdijas slimnīca) est un hôpital situé dans le quartier de Sarkandaugava à Rīga en Lettonie[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital de traumatologie et d'orthopédie (en letton : Traumatoloģijas un ortopēdijas slimnīca) est un hôpital situé dans le quartier de Sarkandaugava à Rīga en Lettonie.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_traumatologie_et_d%27orthop%C3%A9die_(Riga)</t>
+          <t>Hôpital_de_traumatologie_et_d'orthopédie_(Riga)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hôpital de traumatologie et d'orthopédie est un établissement médical situé au 22, rue Duntes, à Riga, en Lettonie. La directrice actuelle de l'hôpital est Anita Vaivode[1].
-L'hôpital de traumatologie et d'orthopédie fournit des soins de santé en cas de blessures et de maladies musculo-squelettiques. Il s'agit du seul centre spécialisé de traumatologie et d'orthopédie en Lettonie[2].
-L'hôpital assure les consultations ambulatoires, les diagnostics, les opérations chirurgicales, la rééducation fonctionnelle, de la formation et des activités de recherche[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital de traumatologie et d'orthopédie est un établissement médical situé au 22, rue Duntes, à Riga, en Lettonie. La directrice actuelle de l'hôpital est Anita Vaivode.
+L'hôpital de traumatologie et d'orthopédie fournit des soins de santé en cas de blessures et de maladies musculo-squelettiques. Il s'agit du seul centre spécialisé de traumatologie et d'orthopédie en Lettonie.
+L'hôpital assure les consultations ambulatoires, les diagnostics, les opérations chirurgicales, la rééducation fonctionnelle, de la formation et des activités de recherche.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_traumatologie_et_d%27orthop%C3%A9die_(Riga)</t>
+          <t>Hôpital_de_traumatologie_et_d'orthopédie_(Riga)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Spécialités et unités fonctionnelles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les spécialités de l’Hôpital sont les chirurgies spécifiques (traumatologie, orthopédie, arthroplastie, chirurgie arthroscopique, microchirurgie, chirurgie du rachis, chirurgie oncologique, chirurgie septique).
-Les unités fonctionnelles sont[1]:
+Les unités fonctionnelles sont:
 Centre de chirurgie de la colonne vertébrale,
 Département de chirurgie plastique et de la main et de Microchirurgie,
 Centre de traumatologie,
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_traumatologie_et_d%27orthop%C3%A9die_(Riga)</t>
+          <t>Hôpital_de_traumatologie_et_d'orthopédie_(Riga)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,10 +595,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hôpital a été fondé en 1946 sur le site de l'ancien hôpital municipal de Sarkankalns]sous le nom d'Institut letton de recherche en traumatologie et orthopédie. En 1994, il a été rebaptisé Hôpital d'État de traumatologie et d'orthopédie et en 1998, il a reçu son nom actuel. 
-Le concepteur du projet de l'ancien bâtiment, construit en 1889, est l'architecte Heinrich Carl Scheel (de)[3].
+Le concepteur du projet de l'ancien bâtiment, construit en 1889, est l'architecte Heinrich Carl Scheel (de).
 </t>
         </is>
       </c>
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_traumatologie_et_d%27orthop%C3%A9die_(Riga)</t>
+          <t>Hôpital_de_traumatologie_et_d'orthopédie_(Riga)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +629,9 @@
           <t>Transports</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Trolleybus : 3</t>
         </is>
